--- a/PREGAME/1. ELICITACION/1.3 Historias De Usuario/Matriz_Marco_Trabajo_HU_FINAL-2.xlsx
+++ b/PREGAME/1. ELICITACION/1.3 Historias De Usuario/Matriz_Marco_Trabajo_HU_FINAL-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleyi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandavb/Documents/GitHub/AlejandroDeLaCruz_20967_G2_MET_SOFT-WARE/PREGAME/1. ELICITACION/1.3 Historias De Usuario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F590AED-E061-6C46-9A72-F7DBFE51E53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D3227B-82DF-214A-B5A9-3416AD316920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="740" windowWidth="25220" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="500" windowWidth="25220" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato descripción HU" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
   <si>
     <t>Matriz de Marco de Trabajo de HU</t>
   </si>
@@ -216,21 +216,6 @@
     <t>REQ006</t>
   </si>
   <si>
-    <t>Interfaz poco intuitiva</t>
-  </si>
-  <si>
-    <t>Mejorar la experiencia visual y usabilidad del sistema</t>
-  </si>
-  <si>
-    <t>- Rediseñar interfaz con mensajes claros de error y diseño amigable</t>
-  </si>
-  <si>
-    <t>- Mostrar mensajes de error cuando los datos se ingresen mal</t>
-  </si>
-  <si>
-    <t>Selección y envio de mensajes</t>
-  </si>
-  <si>
     <t>REQ007</t>
   </si>
   <si>
@@ -283,7 +268,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,11 +279,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -306,6 +293,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -313,6 +301,7 @@
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -320,49 +309,58 @@
       <sz val="11"/>
       <color rgb="FF833C0C"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -370,6 +368,13 @@
       <sz val="12"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -870,10 +875,26 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -885,30 +906,14 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -917,8 +922,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1258,8 +1263,8 @@
   </sheetPr>
   <dimension ref="B1:P994"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E5" zoomScale="190" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1287,22 +1292,22 @@
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="2:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="H4" s="4"/>
@@ -1380,7 +1385,7 @@
       <c r="I6" s="7">
         <v>6</v>
       </c>
-      <c r="J6" s="63">
+      <c r="J6" s="36">
         <v>45799</v>
       </c>
       <c r="K6" s="7" t="s">
@@ -1422,7 +1427,7 @@
       <c r="I7" s="7">
         <v>6</v>
       </c>
-      <c r="J7" s="63">
+      <c r="J7" s="36">
         <v>45807</v>
       </c>
       <c r="K7" s="7" t="s">
@@ -1464,7 +1469,7 @@
       <c r="I8" s="7">
         <v>6</v>
       </c>
-      <c r="J8" s="63">
+      <c r="J8" s="36">
         <v>45823</v>
       </c>
       <c r="K8" s="7" t="s">
@@ -1507,7 +1512,7 @@
       <c r="I9" s="7">
         <v>6</v>
       </c>
-      <c r="J9" s="63">
+      <c r="J9" s="36">
         <v>45838</v>
       </c>
       <c r="K9" s="7" t="s">
@@ -1549,7 +1554,7 @@
       <c r="I10" s="7">
         <v>6</v>
       </c>
-      <c r="J10" s="63">
+      <c r="J10" s="36">
         <v>45845</v>
       </c>
       <c r="K10" s="7" t="s">
@@ -1566,51 +1571,27 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="45" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:16" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="7">
-        <v>6</v>
-      </c>
-      <c r="J11" s="63">
-        <v>45868</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="7" t="s">
-        <v>62</v>
-      </c>
+      <c r="O11" s="7"/>
     </row>
     <row r="12" spans="2:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1628,7 +1609,7 @@
     </row>
     <row r="13" spans="2:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1724,10 +1705,10 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="M25" s="4"/>
     </row>
@@ -1736,7 +1717,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="2"/>
       <c r="L26" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="M26" s="4"/>
     </row>
@@ -7552,6 +7533,7 @@
   <mergeCells count="1">
     <mergeCell ref="B3:O3"/>
   </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K6:K13" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$K$23:$K$25</formula1>
@@ -7573,7 +7555,9 @@
   </sheetPr>
   <dimension ref="B2:P1020"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7599,23 +7583,23 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="2:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="40"/>
+      <c r="B6" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="50"/>
     </row>
     <row r="7" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="17"/>
@@ -7655,15 +7639,15 @@
         <v>1</v>
       </c>
       <c r="D9" s="25"/>
-      <c r="E9" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="40"/>
+      <c r="E9" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="50"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="40"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="26"/>
       <c r="K9" s="26"/>
       <c r="L9" s="26"/>
@@ -7675,20 +7659,20 @@
     <row r="10" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="23"/>
       <c r="C10" s="28" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D10" s="29"/>
-      <c r="E10" s="42" t="str">
+      <c r="E10" s="52" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O13,5,0)</f>
         <v>Administradora</v>
       </c>
-      <c r="F10" s="40"/>
+      <c r="F10" s="50"/>
       <c r="G10" s="30"/>
-      <c r="H10" s="42" t="str">
+      <c r="H10" s="52" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O13,11,0)</f>
         <v>En proceso</v>
       </c>
-      <c r="I10" s="40"/>
+      <c r="I10" s="50"/>
       <c r="J10" s="30"/>
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
@@ -7717,18 +7701,18 @@
     <row r="12" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="23"/>
       <c r="C12" s="24" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D12" s="29"/>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="40"/>
+      <c r="F12" s="50"/>
       <c r="G12" s="30"/>
-      <c r="H12" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="40"/>
+      <c r="H12" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="50"/>
       <c r="J12" s="30"/>
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
@@ -7744,17 +7728,17 @@
         <v>6</v>
       </c>
       <c r="D13" s="29"/>
-      <c r="E13" s="42" t="str">
+      <c r="E13" s="52" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O13,10,0)</f>
         <v>Alta</v>
       </c>
-      <c r="F13" s="40"/>
+      <c r="F13" s="50"/>
       <c r="G13" s="30"/>
-      <c r="H13" s="42" t="str">
+      <c r="H13" s="52" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O13,7,0)</f>
-        <v>Alejandro De La Cruz</v>
-      </c>
-      <c r="I13" s="40"/>
+        <v>Santiago Nogales</v>
+      </c>
+      <c r="I13" s="50"/>
       <c r="J13" s="30"/>
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
@@ -7782,68 +7766,68 @@
     </row>
     <row r="15" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="23"/>
-      <c r="C15" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="56" t="str">
+      <c r="C15" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="53" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O13,3,0)</f>
-        <v>Asignar mensajes a fechas específicas y descargar registros</v>
-      </c>
-      <c r="E15" s="47"/>
+        <v>Registrar datos personales de clientes y fechas importantes</v>
+      </c>
+      <c r="E15" s="40"/>
       <c r="F15" s="26"/>
-      <c r="G15" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="56" t="str">
+      <c r="G15" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="53" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O13,4,0)</f>
         <v>Para personalizar interacciones y recordar eventos relevantes</v>
       </c>
-      <c r="I15" s="54"/>
-      <c r="J15" s="47"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="40"/>
       <c r="K15" s="26"/>
-      <c r="L15" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="M15" s="53" t="str">
+      <c r="L15" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" s="45" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O13,6,0)</f>
-        <v>- Diseñar menú para asignar mensajes a fechas y generar reportes</v>
-      </c>
-      <c r="N15" s="54"/>
-      <c r="O15" s="47"/>
+        <v>- Crear formulario de ingreso con campos obligatorios (nombre, teléfono, fechas de compra, Correo)</v>
+      </c>
+      <c r="N15" s="46"/>
+      <c r="O15" s="40"/>
       <c r="P15" s="27"/>
     </row>
     <row r="16" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="23"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="52"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
       <c r="F16" s="26"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="52"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="42"/>
       <c r="K16" s="26"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="52"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="42"/>
       <c r="P16" s="27"/>
     </row>
     <row r="17" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="23"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="44"/>
       <c r="F17" s="26"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="49"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="44"/>
       <c r="K17" s="26"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="49"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="44"/>
       <c r="P17" s="27"/>
     </row>
     <row r="18" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7865,12 +7849,12 @@
     </row>
     <row r="19" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="23"/>
-      <c r="C19" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="47"/>
+      <c r="C19" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="40"/>
       <c r="E19" s="57" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F19" s="58"/>
       <c r="G19" s="58"/>
@@ -7886,8 +7870,8 @@
     </row>
     <row r="20" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="23"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="60"/>
       <c r="F20" s="61"/>
       <c r="G20" s="61"/>
@@ -7920,63 +7904,63 @@
     </row>
     <row r="22" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="23"/>
-      <c r="C22" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="53" t="str">
+      <c r="C22" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="40"/>
+      <c r="E22" s="45" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O13,12,0)</f>
-        <v>- Verificar que mensajes con +160 caracteres muestren error</v>
-      </c>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="47"/>
+        <v>- Validar que no se guarde si faltan datos obligatorios</v>
+      </c>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="40"/>
       <c r="I22" s="26"/>
-      <c r="J22" s="50" t="s">
+      <c r="J22" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="47"/>
-      <c r="L22" s="53">
+      <c r="K22" s="40"/>
+      <c r="L22" s="45">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O13,13,0)</f>
         <v>0</v>
       </c>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="47"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="40"/>
       <c r="P22" s="27"/>
     </row>
     <row r="23" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="23"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="52"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="42"/>
       <c r="I23" s="26"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="52"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="42"/>
       <c r="P23" s="27"/>
     </row>
     <row r="24" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="49"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="44"/>
       <c r="I24" s="26"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="49"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="44"/>
       <c r="P24" s="27"/>
     </row>
     <row r="25" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7998,23 +7982,23 @@
     </row>
     <row r="26" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="27" spans="2:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
+      <c r="B27" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="50"/>
     </row>
     <row r="28" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="29" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9011,6 +8995,12 @@
     <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E22:H24"/>
+    <mergeCell ref="B6:P6"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="J22:K24"/>
     <mergeCell ref="L22:O24"/>
     <mergeCell ref="B27:P27"/>
@@ -9027,12 +9017,6 @@
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="C22:D24"/>
-    <mergeCell ref="E22:H24"/>
-    <mergeCell ref="B6:P6"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I11">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
